--- a/Team-Data/2011-12/3-2-2011-12.xlsx
+++ b/Team-Data/2011-12/3-2-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>0.583</v>
+        <v>0.571</v>
       </c>
       <c r="H2" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I2" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J2" t="n">
-        <v>81.09999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.438</v>
@@ -693,34 +760,34 @@
         <v>7.1</v>
       </c>
       <c r="M2" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P2" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.719</v>
+        <v>0.716</v>
       </c>
       <c r="R2" t="n">
         <v>10.3</v>
       </c>
       <c r="S2" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T2" t="n">
-        <v>42</v>
+        <v>41.7</v>
       </c>
       <c r="U2" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V2" t="n">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="W2" t="n">
         <v>8.1</v>
@@ -729,31 +796,31 @@
         <v>5.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Z2" t="n">
         <v>17.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -768,58 +835,58 @@
         <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM2" t="n">
         <v>17</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>27</v>
       </c>
       <c r="AR2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS2" t="n">
         <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB2" t="n">
         <v>23</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -848,43 +915,43 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
         <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>0.514</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>34.6</v>
+        <v>34.3</v>
       </c>
       <c r="J3" t="n">
-        <v>75.7</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M3" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.372</v>
+        <v>0.375</v>
       </c>
       <c r="O3" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P3" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q3" t="n">
         <v>0.761</v>
@@ -893,43 +960,43 @@
         <v>8.5</v>
       </c>
       <c r="S3" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T3" t="n">
         <v>39.2</v>
       </c>
       <c r="U3" t="n">
-        <v>22.6</v>
+        <v>22.2</v>
       </c>
       <c r="V3" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.2</v>
+        <v>89.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
         <v>14</v>
@@ -941,7 +1008,7 @@
         <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -956,7 +1023,7 @@
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
         <v>26</v>
@@ -977,10 +1044,10 @@
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
         <v>28</v>
@@ -989,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ3" t="n">
         <v>21</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="n">
-        <v>0.118</v>
+        <v>0.121</v>
       </c>
       <c r="H4" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I4" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="J4" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.414</v>
+        <v>0.415</v>
       </c>
       <c r="L4" t="n">
         <v>4.3</v>
@@ -1060,13 +1127,13 @@
         <v>14.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.304</v>
+        <v>0.308</v>
       </c>
       <c r="O4" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="P4" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="Q4" t="n">
         <v>0.725</v>
@@ -1078,13 +1145,13 @@
         <v>29.6</v>
       </c>
       <c r="T4" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U4" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V4" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W4" t="n">
         <v>5.7</v>
@@ -1099,16 +1166,16 @@
         <v>19.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.3</v>
+        <v>86.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-14.8</v>
+        <v>-14.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1138,22 +1205,22 @@
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
         <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
         <v>28</v>
@@ -1162,7 +1229,7 @@
         <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>30</v>
@@ -1174,10 +1241,10 @@
         <v>25</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -1212,67 +1279,67 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n">
         <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.789</v>
+        <v>0.784</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>38</v>
+        <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L5" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="O5" t="n">
         <v>15.9</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="O5" t="n">
-        <v>15.7</v>
-      </c>
       <c r="P5" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.727</v>
+        <v>0.728</v>
       </c>
       <c r="R5" t="n">
         <v>13.2</v>
       </c>
       <c r="S5" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T5" t="n">
-        <v>45.6</v>
+        <v>45.8</v>
       </c>
       <c r="U5" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V5" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y5" t="n">
         <v>5</v>
@@ -1281,13 +1348,13 @@
         <v>17.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1296,19 +1363,19 @@
         <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH5" t="n">
         <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
         <v>4</v>
@@ -1320,13 +1387,13 @@
         <v>20</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>25</v>
@@ -1338,34 +1405,34 @@
         <v>7</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>27</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC5" t="n">
         <v>2</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>28</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>1</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.382</v>
+        <v>0.394</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
@@ -1412,7 +1479,7 @@
         <v>34.5</v>
       </c>
       <c r="J6" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K6" t="n">
         <v>0.425</v>
@@ -1421,31 +1488,31 @@
         <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="O6" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.696</v>
+        <v>0.695</v>
       </c>
       <c r="R6" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S6" t="n">
-        <v>30.1</v>
+        <v>30.4</v>
       </c>
       <c r="T6" t="n">
-        <v>43.3</v>
+        <v>43.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V6" t="n">
         <v>15.8</v>
@@ -1457,28 +1524,28 @@
         <v>4.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.5</v>
+        <v>-4</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
         <v>23</v>
@@ -1487,10 +1554,10 @@
         <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>26</v>
@@ -1517,34 +1584,34 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AU6" t="n">
         <v>18</v>
       </c>
       <c r="AV6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX6" t="n">
         <v>23</v>
       </c>
       <c r="AY6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BC6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="n">
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.583</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1600,37 +1667,37 @@
         <v>0.436</v>
       </c>
       <c r="L7" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M7" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="N7" t="n">
-        <v>0.323</v>
+        <v>0.321</v>
       </c>
       <c r="O7" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="P7" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="R7" t="n">
         <v>10.8</v>
       </c>
       <c r="S7" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="T7" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="U7" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V7" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W7" t="n">
         <v>9.199999999999999</v>
@@ -1642,28 +1709,28 @@
         <v>4.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB7" t="n">
         <v>94</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF7" t="n">
         <v>9</v>
       </c>
-      <c r="AF7" t="n">
-        <v>12</v>
-      </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
         <v>9</v>
@@ -1675,10 +1742,10 @@
         <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM7" t="n">
         <v>4</v>
@@ -1687,25 +1754,25 @@
         <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ7" t="n">
         <v>20</v>
       </c>
       <c r="AR7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
@@ -1717,16 +1784,16 @@
         <v>12</v>
       </c>
       <c r="AY7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
         <v>12</v>
       </c>
       <c r="BA7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -1758,85 +1825,85 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
         <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>0.541</v>
+        <v>0.528</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
       </c>
       <c r="I8" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J8" t="n">
-        <v>81.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="L8" t="n">
         <v>6.7</v>
       </c>
       <c r="M8" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.323</v>
+        <v>0.322</v>
       </c>
       <c r="O8" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="P8" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.732</v>
+        <v>0.734</v>
       </c>
       <c r="R8" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T8" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="U8" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="V8" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="W8" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y8" t="n">
         <v>6.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AA8" t="n">
         <v>23.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.8</v>
+        <v>103.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
@@ -1854,16 +1921,16 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN8" t="n">
         <v>20</v>
@@ -1878,25 +1945,25 @@
         <v>22</v>
       </c>
       <c r="AR8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AS8" t="n">
         <v>6</v>
       </c>
       <c r="AT8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU8" t="n">
         <v>2</v>
       </c>
       <c r="AV8" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
@@ -1908,10 +1975,10 @@
         <v>1</v>
       </c>
       <c r="BB8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -2018,25 +2085,25 @@
         <v>-6.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
         <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
         <v>27</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
         <v>25</v>
@@ -2057,10 +2124,10 @@
         <v>14</v>
       </c>
       <c r="AQ9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS9" t="n">
         <v>29</v>
@@ -2072,7 +2139,7 @@
         <v>26</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW9" t="n">
         <v>25</v>
@@ -2084,16 +2151,16 @@
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -2122,61 +2189,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>0.424</v>
+        <v>0.438</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J10" t="n">
         <v>82.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.452</v>
+        <v>0.454</v>
       </c>
       <c r="L10" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M10" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="O10" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="P10" t="n">
         <v>20.7</v>
       </c>
-      <c r="N10" t="n">
-        <v>0.379</v>
-      </c>
-      <c r="O10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="P10" t="n">
-        <v>20.5</v>
-      </c>
       <c r="Q10" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R10" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S10" t="n">
         <v>29.3</v>
       </c>
       <c r="T10" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U10" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V10" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W10" t="n">
         <v>8.5</v>
@@ -2188,16 +2255,16 @@
         <v>4.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.3</v>
+        <v>22.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.7</v>
+        <v>-2.1</v>
       </c>
       <c r="AD10" t="n">
         <v>30</v>
@@ -2206,10 +2273,10 @@
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
         <v>12</v>
@@ -2227,22 +2294,22 @@
         <v>4</v>
       </c>
       <c r="AM10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS10" t="n">
         <v>27</v>
@@ -2251,10 +2318,10 @@
         <v>27</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
         <v>8</v>
@@ -2269,13 +2336,13 @@
         <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB10" t="n">
         <v>7</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="n">
         <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.583</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2322,25 +2389,25 @@
         <v>37.4</v>
       </c>
       <c r="J11" t="n">
-        <v>83.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L11" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="N11" t="n">
         <v>0.351</v>
       </c>
       <c r="O11" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="P11" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="Q11" t="n">
         <v>0.788</v>
@@ -2349,49 +2416,49 @@
         <v>11.5</v>
       </c>
       <c r="S11" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="T11" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U11" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V11" t="n">
         <v>14.9</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.2</v>
+        <v>17.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF11" t="n">
         <v>9</v>
       </c>
-      <c r="AF11" t="n">
-        <v>12</v>
-      </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
         <v>9</v>
@@ -2400,22 +2467,22 @@
         <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN11" t="n">
         <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AP11" t="n">
         <v>29</v>
@@ -2430,7 +2497,7 @@
         <v>19</v>
       </c>
       <c r="AT11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU11" t="n">
         <v>17</v>
@@ -2439,19 +2506,19 @@
         <v>14</v>
       </c>
       <c r="AW11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY11" t="n">
         <v>19</v>
       </c>
-      <c r="AX11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>18</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2576,13 +2643,13 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK12" t="n">
         <v>24</v>
@@ -2591,7 +2658,7 @@
         <v>22</v>
       </c>
       <c r="AM12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN12" t="n">
         <v>9</v>
@@ -2618,7 +2685,7 @@
         <v>28</v>
       </c>
       <c r="AV12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW12" t="n">
         <v>9</v>
@@ -2633,13 +2700,13 @@
         <v>26</v>
       </c>
       <c r="BA12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB12" t="n">
         <v>13</v>
       </c>
       <c r="BC12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -2668,94 +2735,94 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" t="n">
         <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>0.618</v>
+        <v>0.636</v>
       </c>
       <c r="H13" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J13" t="n">
-        <v>81.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.451</v>
+        <v>0.454</v>
       </c>
       <c r="L13" t="n">
         <v>7.7</v>
       </c>
       <c r="M13" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="O13" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="P13" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="R13" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="S13" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="U13" t="n">
         <v>21.6</v>
       </c>
-      <c r="N13" t="n">
-        <v>0.356</v>
-      </c>
-      <c r="O13" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="P13" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="R13" t="n">
-        <v>12</v>
-      </c>
-      <c r="S13" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="T13" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="U13" t="n">
-        <v>21.3</v>
-      </c>
       <c r="V13" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W13" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X13" t="n">
         <v>5.2</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z13" t="n">
         <v>21.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG13" t="n">
         <v>6</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>7</v>
       </c>
       <c r="AH13" t="n">
         <v>6</v>
@@ -2764,10 +2831,10 @@
         <v>11</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL13" t="n">
         <v>5</v>
@@ -2779,16 +2846,16 @@
         <v>11</v>
       </c>
       <c r="AO13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS13" t="n">
         <v>17</v>
@@ -2797,7 +2864,7 @@
         <v>13</v>
       </c>
       <c r="AU13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV13" t="n">
         <v>3</v>
@@ -2806,10 +2873,10 @@
         <v>15</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ13" t="n">
         <v>25</v>
@@ -2818,10 +2885,10 @@
         <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
         <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.611</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="J14" t="n">
-        <v>79.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L14" t="n">
         <v>5.1</v>
@@ -2880,34 +2947,34 @@
         <v>16.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.304</v>
+        <v>0.302</v>
       </c>
       <c r="O14" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="P14" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.745</v>
+        <v>0.743</v>
       </c>
       <c r="R14" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S14" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="T14" t="n">
-        <v>45.8</v>
+        <v>45.7</v>
       </c>
       <c r="U14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V14" t="n">
         <v>15</v>
       </c>
       <c r="W14" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
         <v>5.1</v>
@@ -2916,22 +2983,22 @@
         <v>3.9</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="AA14" t="n">
         <v>19.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>94.09999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
@@ -2943,13 +3010,13 @@
         <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ14" t="n">
         <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL14" t="n">
         <v>24</v>
@@ -2958,16 +3025,16 @@
         <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
         <v>13</v>
       </c>
       <c r="AP14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
         <v>14</v>
@@ -2976,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV14" t="n">
         <v>15</v>
@@ -2988,7 +3055,7 @@
         <v>29</v>
       </c>
       <c r="AX14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3000,10 +3067,10 @@
         <v>15</v>
       </c>
       <c r="BB14" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BC14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -3032,22 +3099,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" t="n">
         <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>0.583</v>
+        <v>0.571</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J15" t="n">
         <v>81.7</v>
@@ -3062,31 +3129,31 @@
         <v>11.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.322</v>
+        <v>0.321</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P15" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.754</v>
+        <v>0.756</v>
       </c>
       <c r="R15" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="S15" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T15" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="U15" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="V15" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W15" t="n">
         <v>10</v>
@@ -3101,34 +3168,34 @@
         <v>19.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.8</v>
+        <v>93.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
         <v>9</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>12</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>13</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -3140,16 +3207,16 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
       </c>
       <c r="AP15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>12</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>13</v>
       </c>
       <c r="AR15" t="n">
         <v>9</v>
@@ -3158,13 +3225,13 @@
         <v>23</v>
       </c>
       <c r="AT15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
         <v>24</v>
       </c>
       <c r="AV15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
@@ -3176,13 +3243,13 @@
         <v>22</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA15" t="n">
         <v>14</v>
       </c>
       <c r="BB15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" t="n">
         <v>28</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>0.778</v>
+        <v>0.8</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
@@ -3232,76 +3299,76 @@
         <v>38.6</v>
       </c>
       <c r="J16" t="n">
-        <v>79.09999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.488</v>
+        <v>0.487</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M16" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.404</v>
+        <v>0.402</v>
       </c>
       <c r="O16" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="P16" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R16" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S16" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="T16" t="n">
-        <v>42.6</v>
+        <v>42.9</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V16" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W16" t="n">
         <v>8.6</v>
       </c>
       <c r="X16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z16" t="n">
         <v>20.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB16" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
       </c>
       <c r="AF16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG16" t="n">
         <v>2</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>3</v>
       </c>
       <c r="AH16" t="n">
         <v>3</v>
@@ -3328,31 +3395,31 @@
         <v>2</v>
       </c>
       <c r="AP16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ16" t="n">
         <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AU16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AV16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW16" t="n">
         <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AY16" t="n">
         <v>3</v>
@@ -3364,10 +3431,10 @@
         <v>7</v>
       </c>
       <c r="BB16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -3396,67 +3463,67 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>0.389</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J17" t="n">
         <v>85.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.423</v>
+        <v>0.424</v>
       </c>
       <c r="L17" t="n">
         <v>6.6</v>
       </c>
       <c r="M17" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N17" t="n">
         <v>0.328</v>
       </c>
       <c r="O17" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="P17" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.795</v>
+        <v>0.793</v>
       </c>
       <c r="R17" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S17" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T17" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U17" t="n">
         <v>21.4</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W17" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y17" t="n">
         <v>4.9</v>
@@ -3474,7 +3541,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3486,7 +3553,7 @@
         <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
         <v>14</v>
@@ -3495,25 +3562,25 @@
         <v>1</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL17" t="n">
         <v>15</v>
       </c>
       <c r="AM17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR17" t="n">
         <v>4</v>
@@ -3525,16 +3592,16 @@
         <v>19</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AY17" t="n">
         <v>10</v>
@@ -3549,7 +3616,7 @@
         <v>14</v>
       </c>
       <c r="BC17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -3656,25 +3723,25 @@
         <v>0.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
         <v>18</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
         <v>22</v>
@@ -3692,13 +3759,13 @@
         <v>5</v>
       </c>
       <c r="AP18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS18" t="n">
         <v>9</v>
@@ -3710,10 +3777,10 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX18" t="n">
         <v>26</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" t="n">
         <v>11</v>
       </c>
       <c r="F19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" t="n">
-        <v>0.297</v>
+        <v>0.306</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3778,43 +3845,43 @@
         <v>33.6</v>
       </c>
       <c r="J19" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.424</v>
+        <v>0.423</v>
       </c>
       <c r="L19" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M19" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.353</v>
+        <v>0.355</v>
       </c>
       <c r="O19" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P19" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q19" t="n">
         <v>0.772</v>
       </c>
       <c r="R19" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S19" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="T19" t="n">
         <v>39.8</v>
       </c>
       <c r="U19" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V19" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W19" t="n">
         <v>7.1</v>
@@ -3832,19 +3899,19 @@
         <v>20.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.7</v>
+        <v>-6.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
         <v>27</v>
@@ -3856,10 +3923,10 @@
         <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
         <v>2</v>
@@ -3871,10 +3938,10 @@
         <v>12</v>
       </c>
       <c r="AO19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ19" t="n">
         <v>8</v>
@@ -3892,19 +3959,19 @@
         <v>21</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY19" t="n">
         <v>20</v>
       </c>
       <c r="AZ19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA19" t="n">
         <v>13</v>
@@ -3913,7 +3980,7 @@
         <v>25</v>
       </c>
       <c r="BC19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>0.25</v>
+        <v>0.229</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="J20" t="n">
-        <v>79.09999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.436</v>
@@ -3972,28 +4039,28 @@
         <v>12.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.314</v>
+        <v>0.317</v>
       </c>
       <c r="O20" t="n">
         <v>15.5</v>
       </c>
       <c r="P20" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.748</v>
+        <v>0.746</v>
       </c>
       <c r="R20" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S20" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T20" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U20" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V20" t="n">
         <v>15.3</v>
@@ -4002,25 +4069,25 @@
         <v>7.4</v>
       </c>
       <c r="X20" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>88.5</v>
+        <v>88.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4.9</v>
+        <v>-5.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4038,37 +4105,37 @@
         <v>24</v>
       </c>
       <c r="AJ20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
         <v>28</v>
       </c>
       <c r="AM20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
         <v>17</v>
       </c>
       <c r="AR20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU20" t="n">
         <v>20</v>
@@ -4077,13 +4144,13 @@
         <v>21</v>
       </c>
       <c r="AW20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
         <v>22</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>1.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -4211,19 +4278,19 @@
         <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="n">
         <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
         <v>10</v>
@@ -4232,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4262,13 +4329,13 @@
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA21" t="n">
         <v>2</v>
@@ -4277,7 +4344,7 @@
         <v>12</v>
       </c>
       <c r="BC21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -4384,10 +4451,10 @@
         <v>6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
@@ -4396,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>10</v>
@@ -4423,7 +4490,7 @@
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
         <v>22</v>
@@ -4432,7 +4499,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
         <v>27</v>
@@ -4453,7 +4520,7 @@
         <v>19</v>
       </c>
       <c r="BA22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>2.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>5</v>
@@ -4575,10 +4642,10 @@
         <v>7</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
         <v>28</v>
@@ -4602,7 +4669,7 @@
         <v>20</v>
       </c>
       <c r="AP23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4614,13 +4681,13 @@
         <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU23" t="n">
         <v>19</v>
       </c>
       <c r="AV23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW23" t="n">
         <v>27</v>
@@ -4629,19 +4696,19 @@
         <v>26</v>
       </c>
       <c r="AY23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>4</v>
       </c>
-      <c r="AZ23" t="n">
-        <v>5</v>
-      </c>
       <c r="BA23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BC23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" t="n">
         <v>15</v>
       </c>
       <c r="G24" t="n">
-        <v>0.595</v>
+        <v>0.583</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J24" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L24" t="n">
         <v>5.7</v>
@@ -4700,58 +4767,58 @@
         <v>15.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.371</v>
+        <v>0.368</v>
       </c>
       <c r="O24" t="n">
         <v>13.4</v>
       </c>
       <c r="P24" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.736</v>
+        <v>0.734</v>
       </c>
       <c r="R24" t="n">
         <v>9.9</v>
       </c>
       <c r="S24" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T24" t="n">
-        <v>42.9</v>
+        <v>42.7</v>
       </c>
       <c r="U24" t="n">
         <v>21.8</v>
       </c>
       <c r="V24" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="W24" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X24" t="n">
         <v>4.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>94.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF24" t="n">
         <v>9</v>
@@ -4760,16 +4827,16 @@
         <v>9</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
         <v>5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL24" t="n">
         <v>21</v>
@@ -4793,10 +4860,10 @@
         <v>29</v>
       </c>
       <c r="AS24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU24" t="n">
         <v>8</v>
@@ -4805,22 +4872,22 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX24" t="n">
         <v>21</v>
       </c>
       <c r="AY24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -4852,85 +4919,85 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" t="n">
         <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>0.444</v>
+        <v>0.429</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="J25" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.447</v>
+        <v>0.45</v>
       </c>
       <c r="L25" t="n">
         <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O25" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P25" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.768</v>
+        <v>0.774</v>
       </c>
       <c r="R25" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S25" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="T25" t="n">
-        <v>41.6</v>
+        <v>41.3</v>
       </c>
       <c r="U25" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V25" t="n">
         <v>14.7</v>
       </c>
       <c r="W25" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X25" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y25" t="n">
         <v>4.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
@@ -4939,19 +5006,19 @@
         <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH25" t="n">
         <v>29</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
         <v>12</v>
@@ -4963,16 +5030,16 @@
         <v>15</v>
       </c>
       <c r="AO25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP25" t="n">
         <v>28</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AR25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AS25" t="n">
         <v>14</v>
@@ -4981,31 +5048,31 @@
         <v>24</v>
       </c>
       <c r="AU25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX25" t="n">
         <v>11</v>
       </c>
-      <c r="AW25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>10</v>
-      </c>
       <c r="AY25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ25" t="n">
         <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
@@ -5121,10 +5188,10 @@
         <v>16</v>
       </c>
       <c r="AG26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
@@ -5133,10 +5200,10 @@
         <v>6</v>
       </c>
       <c r="AK26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL26" t="n">
         <v>13</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>14</v>
       </c>
       <c r="AM26" t="n">
         <v>12</v>
@@ -5154,28 +5221,28 @@
         <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS26" t="n">
         <v>15</v>
       </c>
       <c r="AT26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW26" t="n">
         <v>6</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>5</v>
       </c>
       <c r="AX26" t="n">
         <v>9</v>
       </c>
       <c r="AY26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ26" t="n">
         <v>16</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -5216,64 +5283,64 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" t="n">
         <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" t="n">
-        <v>0.333</v>
+        <v>0.343</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>35.2</v>
+        <v>34.9</v>
       </c>
       <c r="J27" t="n">
-        <v>85.09999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="K27" t="n">
         <v>0.413</v>
       </c>
       <c r="L27" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M27" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.314</v>
+        <v>0.313</v>
       </c>
       <c r="O27" t="n">
-        <v>18.3</v>
+        <v>18.6</v>
       </c>
       <c r="P27" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R27" t="n">
         <v>14</v>
       </c>
       <c r="S27" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U27" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="V27" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X27" t="n">
         <v>4.5</v>
@@ -5285,16 +5352,16 @@
         <v>19.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>94.90000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC27" t="n">
         <v>-7.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,10 +5373,10 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>2</v>
@@ -5324,10 +5391,10 @@
         <v>11</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP27" t="n">
         <v>9</v>
@@ -5342,13 +5409,13 @@
         <v>24</v>
       </c>
       <c r="AT27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
@@ -5360,13 +5427,13 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" t="n">
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.694</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J28" t="n">
         <v>82.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L28" t="n">
         <v>8</v>
@@ -5428,7 +5495,7 @@
         <v>20.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.397</v>
+        <v>0.394</v>
       </c>
       <c r="O28" t="n">
         <v>15.5</v>
@@ -5437,25 +5504,25 @@
         <v>21.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.728</v>
+        <v>0.729</v>
       </c>
       <c r="R28" t="n">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T28" t="n">
-        <v>41.7</v>
+        <v>41.3</v>
       </c>
       <c r="U28" t="n">
         <v>22.2</v>
       </c>
       <c r="V28" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="W28" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X28" t="n">
         <v>4.4</v>
@@ -5467,16 +5534,16 @@
         <v>17.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5491,10 +5558,10 @@
         <v>4</v>
       </c>
       <c r="AI28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK28" t="n">
         <v>5</v>
@@ -5509,7 +5576,7 @@
         <v>2</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
@@ -5518,22 +5585,22 @@
         <v>24</v>
       </c>
       <c r="AR28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT28" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AU28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
       </c>
       <c r="AW28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX28" t="n">
         <v>25</v>
@@ -5551,7 +5618,7 @@
         <v>4</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" t="n">
         <v>11</v>
       </c>
       <c r="F29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>0.306</v>
+        <v>0.314</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="J29" t="n">
-        <v>78.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.435</v>
+        <v>0.432</v>
       </c>
       <c r="L29" t="n">
         <v>5.5</v>
@@ -5610,55 +5677,55 @@
         <v>16.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.329</v>
+        <v>0.328</v>
       </c>
       <c r="O29" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P29" t="n">
         <v>21.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.751</v>
+        <v>0.749</v>
       </c>
       <c r="R29" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="S29" t="n">
         <v>31.4</v>
       </c>
       <c r="T29" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U29" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V29" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W29" t="n">
         <v>6.9</v>
       </c>
       <c r="X29" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="AA29" t="n">
         <v>18.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>89.59999999999999</v>
+        <v>89.3</v>
       </c>
       <c r="AC29" t="n">
         <v>-4.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -5679,49 +5746,49 @@
         <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
         <v>23</v>
       </c>
       <c r="AM29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN29" t="n">
         <v>19</v>
       </c>
-      <c r="AN29" t="n">
-        <v>18</v>
-      </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ29" t="n">
         <v>16</v>
       </c>
       <c r="AR29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AS29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT29" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AU29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV29" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AW29" t="n">
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" t="n">
         <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>0.486</v>
+        <v>0.471</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
@@ -5780,13 +5847,13 @@
         <v>37.1</v>
       </c>
       <c r="J30" t="n">
-        <v>82.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L30" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M30" t="n">
         <v>12.5</v>
@@ -5798,25 +5865,25 @@
         <v>18.5</v>
       </c>
       <c r="P30" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q30" t="n">
         <v>0.745</v>
       </c>
       <c r="R30" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="S30" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T30" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U30" t="n">
         <v>21.1</v>
       </c>
       <c r="V30" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W30" t="n">
         <v>8.199999999999999</v>
@@ -5825,22 +5892,22 @@
         <v>5.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="AA30" t="n">
         <v>21</v>
       </c>
       <c r="AB30" t="n">
-        <v>96.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="AD30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE30" t="n">
         <v>19</v>
@@ -5867,28 +5934,28 @@
         <v>29</v>
       </c>
       <c r="AM30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN30" t="n">
         <v>30</v>
       </c>
       <c r="AO30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP30" t="n">
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>21</v>
       </c>
       <c r="AT30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>14</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,10 +6101,10 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ31" t="n">
         <v>3</v>
@@ -6052,7 +6119,7 @@
         <v>24</v>
       </c>
       <c r="AN31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO31" t="n">
         <v>17</v>
@@ -6067,16 +6134,16 @@
         <v>13</v>
       </c>
       <c r="AS31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW31" t="n">
         <v>11</v>
@@ -6085,7 +6152,7 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-2-2011-12</t>
+          <t>2012-03-02</t>
         </is>
       </c>
     </row>
